--- a/config/sample_list.xlsx
+++ b/config/sample_list.xlsx
@@ -407,7 +407,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O5" activeCellId="0" sqref="O5"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6171875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
